--- a/write-better-excel-agent-instructions.xlsx
+++ b/write-better-excel-agent-instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF37586-C82C-4E76-AFE8-4B2EBBFBE1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03CA1215-028C-4750-9AE3-900C221A4E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5CABB62-2091-492F-B17F-E4218F132CA8}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5CABB62-2091-492F-B17F-E4218F132CA8}" name="sales" displayName="sales" ref="A1:F17" totalsRowShown="0">
   <autoFilter ref="A1:F17" xr:uid="{C5CABB62-2091-492F-B17F-E4218F132CA8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8F3C88BE-B4C3-4839-B703-31EC2C556137}" name="Date"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="A2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
